--- a/品質管理/ユーザー登録.xlsx
+++ b/品質管理/ユーザー登録.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\webアプリ開発\品質管理\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF5E915-7264-44BF-B7D2-42E5D458C5F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31416710-9036-4DC4-9C5B-FD352596CFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5235" yWindow="1470" windowWidth="10680" windowHeight="10485" xr2:uid="{5FC8C64F-D572-417E-9E2C-F7AC4FA31884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5FC8C64F-D572-417E-9E2C-F7AC4FA31884}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -51,16 +51,6 @@
     <t>内容</t>
     <rPh sb="0" eb="2">
       <t>ナイヨウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>「1.ロゴマーク」をクリックすると「トップページ」に画面遷移する。</t>
-    <rPh sb="26" eb="28">
-      <t>ガメン</t>
-    </rPh>
-    <rPh sb="28" eb="30">
-      <t>センイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -203,14 +193,18 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「2.ページタイトル」が存在する。</t>
+    <t>※行が増えたり項目が増えると「チェックボックス」がずれるので、最後に追加する。</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>「1.ページタイトル」が存在する。</t>
     <rPh sb="12" eb="14">
       <t>ソンザイ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「3.ID入力欄」が存在する。</t>
+    <t>「2.ID入力欄」が存在する。</t>
     <rPh sb="5" eb="7">
       <t>ニュウリョク</t>
     </rPh>
@@ -223,7 +217,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「4.パスワード入力欄」が存在する。</t>
+    <t>「3.パスワード入力欄」が存在する。</t>
     <rPh sb="8" eb="10">
       <t>ニュウリョク</t>
     </rPh>
@@ -236,7 +230,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「5.氏名」が存在する。</t>
+    <t>「4.氏名」が存在する。</t>
     <rPh sb="3" eb="5">
       <t>シメイ</t>
     </rPh>
@@ -246,7 +240,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「6.会社名」が存在する。</t>
+    <t>「5.会社名」が存在する。</t>
     <rPh sb="3" eb="6">
       <t>カイシャメイ</t>
     </rPh>
@@ -256,7 +250,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「7.受講者/講師/運営事務局」のラジオボタンが存在する。</t>
+    <t>「6.受講者/講師/運営事務局」のラジオボタンが存在する。</t>
     <rPh sb="3" eb="6">
       <t>ジュコウシャ</t>
     </rPh>
@@ -272,7 +266,7 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「8.登録」ボタンが存在する。</t>
+    <t>「7.登録」ボタンが存在する。</t>
     <rPh sb="3" eb="5">
       <t>トウロク</t>
     </rPh>
@@ -282,14 +276,10 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>「9.フッター」が存在する。</t>
+    <t>「8.フッター」が存在する。</t>
     <rPh sb="9" eb="11">
       <t>ソンザイ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>※行が増えたり項目が増えると「チェックボックス」がずれるので、最後に追加する。</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -382,9 +372,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -417,6 +404,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -735,10 +725,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26F4E8A-A180-4EC3-816A-EB455815DC8E}">
-  <dimension ref="B2:D14"/>
+  <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -748,7 +738,7 @@
   <sheetData>
     <row r="2" spans="2:4" x14ac:dyDescent="0.4">
       <c r="C2" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:4" x14ac:dyDescent="0.4">
@@ -762,96 +752,103 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B4" s="3">
         <v>1</v>
       </c>
-      <c r="C4" s="5"/>
+      <c r="C4" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="D4" s="4" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B5" s="3">
         <v>2</v>
       </c>
-      <c r="C5" s="5"/>
+      <c r="C5" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="D5" s="4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.4">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B6" s="3">
         <v>3</v>
       </c>
-      <c r="C6" s="5"/>
+      <c r="C6" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="D6" s="4" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B7" s="3">
         <v>4</v>
       </c>
-      <c r="C7" s="5"/>
+      <c r="C7" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="D7" s="4" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B8" s="3">
         <v>5</v>
       </c>
-      <c r="C8" s="5"/>
+      <c r="C8" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="D8" s="4" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.4">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B9" s="3">
         <v>6</v>
       </c>
-      <c r="C9" s="5"/>
+      <c r="C9" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="D9" s="4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B10" s="3">
         <v>7</v>
       </c>
-      <c r="C10" s="5"/>
+      <c r="C10" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="D10" s="4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
         <v>8</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B12" s="3">
-        <v>9</v>
-      </c>
-      <c r="C12" s="5"/>
-      <c r="D12" s="4" t="s">
-        <v>31</v>
-      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="9"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B13" s="8"/>
-      <c r="C13" s="9"/>
-      <c r="D13" s="10"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.4">
-      <c r="B14" s="8"/>
-      <c r="C14" s="9"/>
-      <c r="D14" s="10"/>
+      <c r="B13" s="7"/>
+      <c r="C13" s="8"/>
+      <c r="D13" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
@@ -863,8 +860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7871A42-3833-439F-AEF4-FC216EF73882}">
   <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
@@ -876,33 +873,33 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="12"/>
+      <c r="B2" s="10"/>
+      <c r="C2" s="10"/>
+      <c r="D2" s="11"/>
     </row>
     <row r="3" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B3" s="13"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="15"/>
+      <c r="B3" s="12"/>
+      <c r="C3" s="13"/>
+      <c r="D3" s="14"/>
     </row>
     <row r="4" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B4" s="13"/>
-      <c r="C4" s="14"/>
-      <c r="D4" s="15"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
     </row>
     <row r="5" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B5" s="13"/>
-      <c r="C5" s="14"/>
-      <c r="D5" s="15"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="13"/>
+      <c r="D5" s="14"/>
     </row>
     <row r="6" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="15"/>
+      <c r="B6" s="12"/>
+      <c r="C6" s="13"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="9" spans="2:10" x14ac:dyDescent="0.4">
       <c r="C9" t="s">
-        <v>32</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="2:10" ht="36" x14ac:dyDescent="0.4">
@@ -913,199 +910,209 @@
         <v>1</v>
       </c>
       <c r="D10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>23</v>
-      </c>
       <c r="F10" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="G10" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="H10" s="2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I10" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="J10" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="J10" s="2" t="s">
-        <v>15</v>
       </c>
     </row>
     <row r="11" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B11" s="3">
         <v>1</v>
       </c>
-      <c r="C11" s="5"/>
+      <c r="C11" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="D11" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="I11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I11" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>17</v>
+      <c r="J11" s="6" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="12" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B12" s="3">
         <v>2</v>
       </c>
-      <c r="C12" s="5"/>
+      <c r="C12" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="D12" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G12" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H12" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="I12" s="6" t="s">
-        <v>20</v>
+        <v>6</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="I12" s="5" t="s">
+        <v>19</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="13" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B13" s="3">
         <v>3</v>
       </c>
-      <c r="C13" s="5"/>
+      <c r="C13" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="D13" s="17" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="F13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="G13" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H13" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I13" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="14" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
       <c r="B14" s="3">
         <v>4</v>
       </c>
-      <c r="C14" s="5"/>
+      <c r="C14" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="D14" s="17"/>
       <c r="E14" s="17" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="F14" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="H14" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I14" s="6" t="s">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="I14" s="5" t="s">
+        <v>12</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="15" spans="2:10" ht="56.25" x14ac:dyDescent="0.4">
       <c r="B15" s="3">
         <v>5</v>
       </c>
-      <c r="C15" s="5"/>
+      <c r="C15" s="16" t="s">
+        <v>15</v>
+      </c>
       <c r="D15" s="17"/>
       <c r="E15" s="17"/>
       <c r="F15" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="G15" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H15" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I15" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>16</v>
+      <c r="J15" s="6" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B16" s="8"/>
-      <c r="C16" s="9"/>
-      <c r="D16" s="8"/>
-      <c r="E16" s="8"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="16"/>
-      <c r="J16" s="13"/>
+      <c r="B16" s="7"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="7"/>
+      <c r="E16" s="7"/>
+      <c r="F16" s="7"/>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="15"/>
+      <c r="J16" s="12"/>
     </row>
     <row r="17" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B17" s="8"/>
-      <c r="C17" s="9"/>
-      <c r="D17" s="8"/>
-      <c r="E17" s="8"/>
-      <c r="F17" s="8"/>
-      <c r="G17" s="8"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="16"/>
-      <c r="J17" s="13"/>
+      <c r="B17" s="7"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="7"/>
+      <c r="F17" s="7"/>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="15"/>
+      <c r="J17" s="12"/>
     </row>
     <row r="18" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B18" s="8"/>
-      <c r="C18" s="9"/>
-      <c r="D18" s="8"/>
-      <c r="E18" s="8"/>
-      <c r="F18" s="8"/>
-      <c r="G18" s="8"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="16"/>
-      <c r="J18" s="13"/>
+      <c r="B18" s="7"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="7"/>
+      <c r="F18" s="7"/>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="15"/>
+      <c r="J18" s="12"/>
     </row>
     <row r="19" spans="2:10" x14ac:dyDescent="0.4">
-      <c r="B19" s="8"/>
-      <c r="C19" s="9"/>
-      <c r="D19" s="8"/>
-      <c r="E19" s="8"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="8"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="16"/>
-      <c r="J19" s="13"/>
+      <c r="B19" s="7"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="7"/>
+      <c r="F19" s="7"/>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="15"/>
+      <c r="J19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/品質管理/ユーザー登録.xlsx
+++ b/品質管理/ユーザー登録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31416710-9036-4DC4-9C5B-FD352596CFE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576AB15A-896F-4CB9-988D-3989A8C784C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{5FC8C64F-D572-417E-9E2C-F7AC4FA31884}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5FC8C64F-D572-417E-9E2C-F7AC4FA31884}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="2" r:id="rId1"/>
@@ -727,9 +727,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26F4E8A-A180-4EC3-816A-EB455815DC8E}">
   <dimension ref="B2:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4:C11"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>
@@ -860,9 +858,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7871A42-3833-439F-AEF4-FC216EF73882}">
   <dimension ref="B2:J19"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <cols>

--- a/品質管理/ユーザー登録.xlsx
+++ b/品質管理/ユーザー登録.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-4\品質管理\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{576AB15A-896F-4CB9-988D-3989A8C784C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{983FA961-8E4A-445C-9C09-6BFF5768C35A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{5FC8C64F-D572-417E-9E2C-F7AC4FA31884}"/>
+    <workbookView xWindow="9960" yWindow="792" windowWidth="10584" windowHeight="11568" activeTab="1" xr2:uid="{5FC8C64F-D572-417E-9E2C-F7AC4FA31884}"/>
   </bookViews>
   <sheets>
     <sheet name="画面設計" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="33">
   <si>
     <t>項目</t>
     <rPh sb="0" eb="2">
@@ -279,6 +279,14 @@
     <t>「8.フッター」が存在する。</t>
     <rPh sb="9" eb="11">
       <t>ソンザイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>チェック
+（2回目）</t>
+    <rPh sb="7" eb="9">
+      <t>カイメ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -287,7 +295,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -309,6 +317,15 @@
       <sz val="6"/>
       <name val="游ゴシック"/>
       <family val="2"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="游ゴシック"/>
+      <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
@@ -356,7 +373,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -410,6 +427,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -725,221 +748,263 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E26F4E8A-A180-4EC3-816A-EB455815DC8E}">
-  <dimension ref="B2:D13"/>
+  <dimension ref="B2:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D4" sqref="D4:D11"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="31.875" customWidth="1"/>
+    <col min="5" max="5" width="31.8984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C2" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="3" spans="2:5" ht="28.8" x14ac:dyDescent="0.45">
       <c r="B3" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D3" s="2" t="s">
+      <c r="D3" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E4" s="4" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="C5" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" s="3">
         <v>3</v>
       </c>
       <c r="C6" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="4" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" s="3">
         <v>4</v>
       </c>
       <c r="C7" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E7" s="4" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" s="3">
         <v>5</v>
       </c>
       <c r="C8" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E8" s="4" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="2:4" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="9" spans="2:5" ht="36" x14ac:dyDescent="0.45">
       <c r="B9" s="3">
         <v>6</v>
       </c>
       <c r="C9" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B10" s="3">
         <v>7</v>
       </c>
       <c r="C10" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <v>8</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="4" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B12" s="7"/>
       <c r="C12" s="8"/>
-      <c r="D12" s="9"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.4">
+      <c r="D12" s="8"/>
+      <c r="E12" s="9"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B13" s="7"/>
       <c r="C13" s="8"/>
-      <c r="D13" s="9"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7871A42-3833-439F-AEF4-FC216EF73882}">
-  <dimension ref="B2:J19"/>
+  <dimension ref="B2:K19"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="G4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J15" sqref="J15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="4" max="4" width="31.75" customWidth="1"/>
-    <col min="5" max="7" width="18.875" customWidth="1"/>
-    <col min="8" max="8" width="14.5" customWidth="1"/>
-    <col min="9" max="9" width="21.5" customWidth="1"/>
+    <col min="5" max="5" width="31.69921875" customWidth="1"/>
+    <col min="6" max="8" width="18.8984375" customWidth="1"/>
+    <col min="9" max="9" width="14.5" customWidth="1"/>
+    <col min="10" max="10" width="21.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.4">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B2" s="10"/>
       <c r="C2" s="10"/>
-      <c r="D2" s="11"/>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D2" s="10"/>
+      <c r="E2" s="11"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B3" s="12"/>
       <c r="C3" s="13"/>
-      <c r="D3" s="14"/>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D3" s="13"/>
+      <c r="E3" s="14"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B4" s="12"/>
       <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-    </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D4" s="13"/>
+      <c r="E4" s="14"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B5" s="12"/>
       <c r="C5" s="13"/>
-      <c r="D5" s="14"/>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D5" s="13"/>
+      <c r="E5" s="14"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B6" s="12"/>
       <c r="C6" s="13"/>
-      <c r="D6" s="14"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.45">
       <c r="C9" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="2:10" ht="36" x14ac:dyDescent="0.4">
+    <row r="10" spans="2:11" ht="36" x14ac:dyDescent="0.45">
       <c r="B10" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="D10" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="E10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="H10" s="2" t="s">
+      <c r="I10" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="I10" s="2" t="s">
+      <c r="J10" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="J10" s="2" t="s">
+      <c r="K10" s="2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="11" spans="2:11" ht="36" x14ac:dyDescent="0.45">
       <c r="B11" s="3">
         <v>1</v>
       </c>
       <c r="C11" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="D11" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E11" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E11" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="F11" s="3" t="s">
         <v>6</v>
       </c>
@@ -949,43 +1014,49 @@
       <c r="H11" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I11" s="5" t="s">
+      <c r="I11" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J11" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="6" t="s">
+      <c r="K11" s="6" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="12" spans="2:11" ht="36" x14ac:dyDescent="0.45">
       <c r="B12" s="3">
         <v>2</v>
       </c>
       <c r="C12" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="F12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H12" s="5" t="s">
+      <c r="H12" s="3" t="s">
         <v>6</v>
       </c>
       <c r="I12" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="J12" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="K12" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="13" spans="2:11" ht="36" x14ac:dyDescent="0.45">
       <c r="B13" s="3">
         <v>3</v>
       </c>
@@ -993,127 +1064,140 @@
         <v>15</v>
       </c>
       <c r="D13" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E13" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="E13" s="3" t="s">
+      <c r="F13" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="G13" s="3" t="s">
         <v>6</v>
       </c>
       <c r="H13" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I13" s="5" t="s">
+      <c r="I13" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J13" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="K13" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="2:10" ht="37.5" x14ac:dyDescent="0.4">
+    <row r="14" spans="2:11" ht="36" x14ac:dyDescent="0.45">
       <c r="B14" s="3">
         <v>4</v>
       </c>
       <c r="C14" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17" t="s">
+      <c r="D14" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" s="18"/>
+      <c r="F14" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="G14" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G14" s="3" t="s">
-        <v>6</v>
-      </c>
       <c r="H14" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="I14" s="5" t="s">
+      <c r="I14" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="J14" s="3" t="s">
+      <c r="K14" s="3" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="15" spans="2:10" ht="56.25" x14ac:dyDescent="0.4">
+    <row r="15" spans="2:11" ht="54" x14ac:dyDescent="0.45">
       <c r="B15" s="3">
         <v>5</v>
       </c>
       <c r="C15" s="16" t="s">
         <v>15</v>
       </c>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="3" t="s">
+      <c r="D15" s="17" t="s">
+        <v>15</v>
+      </c>
+      <c r="E15" s="18"/>
+      <c r="F15" s="18"/>
+      <c r="G15" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="G15" s="3" t="s">
+      <c r="H15" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="H15" s="3" t="s">
+      <c r="I15" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="I15" s="5" t="s">
+      <c r="J15" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="J15" s="6" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="K15" s="6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B16" s="7"/>
       <c r="C16" s="8"/>
-      <c r="D16" s="7"/>
+      <c r="D16" s="8"/>
       <c r="E16" s="7"/>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="7"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="12"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I16" s="7"/>
+      <c r="J16" s="15"/>
+      <c r="K16" s="12"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B17" s="7"/>
       <c r="C17" s="8"/>
-      <c r="D17" s="7"/>
+      <c r="D17" s="8"/>
       <c r="E17" s="7"/>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="7"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="12"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I17" s="7"/>
+      <c r="J17" s="15"/>
+      <c r="K17" s="12"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B18" s="7"/>
       <c r="C18" s="8"/>
-      <c r="D18" s="7"/>
+      <c r="D18" s="8"/>
       <c r="E18" s="7"/>
       <c r="F18" s="7"/>
       <c r="G18" s="7"/>
       <c r="H18" s="7"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="12"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.4">
+      <c r="I18" s="7"/>
+      <c r="J18" s="15"/>
+      <c r="K18" s="12"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.45">
       <c r="B19" s="7"/>
       <c r="C19" s="8"/>
-      <c r="D19" s="7"/>
+      <c r="D19" s="8"/>
       <c r="E19" s="7"/>
       <c r="F19" s="7"/>
       <c r="G19" s="7"/>
       <c r="H19" s="7"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="12"/>
+      <c r="I19" s="7"/>
+      <c r="J19" s="15"/>
+      <c r="K19" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="E13:E15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
